--- a/Templates/Purchased_Electricity.xlsx
+++ b/Templates/Purchased_Electricity.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\LevelUPESG\Batch-input-Page\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697E1A3-A2E1-4F01-9932-47B55B74936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FD2D0-6126-4515-B842-69AB368C091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="624">
   <si>
     <t>Asset Name</t>
   </si>
@@ -1848,16 +1848,74 @@
   </si>
   <si>
     <t>Actual / Estimated</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company1</t>
+  </si>
+  <si>
+    <t>company2</t>
+  </si>
+  <si>
+    <t>company3</t>
+  </si>
+  <si>
+    <t>company4</t>
+  </si>
+  <si>
+    <t>company5</t>
+  </si>
+  <si>
+    <t>company6</t>
+  </si>
+  <si>
+    <t>company7</t>
+  </si>
+  <si>
+    <t>company8</t>
+  </si>
+  <si>
+    <t>company9</t>
+  </si>
+  <si>
+    <t>company10</t>
+  </si>
+  <si>
+    <t>company11</t>
+  </si>
+  <si>
+    <t>The fiscal year for which the data is being reported, e.g., 2021</t>
+  </si>
+  <si>
+    <t>Renewable procurement</t>
+  </si>
+  <si>
+    <t>Own supplier mix</t>
+  </si>
+  <si>
+    <t>Provide a reference to supporting documentation that verifies the reported data. This could be a link to the invoice or other relevant documents</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1883,7 +1941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1894,6 +1952,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,10 +2457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB06127-51F1-4F9A-A47E-54D7AA2F701A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V1683"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,8 +2559,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2507,11 +2569,11 @@
       <c r="C2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="1">
-        <v>2022</v>
+      <c r="D2" s="4" t="s">
+        <v>619</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>621</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>222</v>
@@ -2528,25 +2590,223 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4232,12 +4492,9 @@
       <formula>$E2 &lt;&gt;"Own supplier mix"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1683" xr:uid="{4CE175D7-6AAE-4B68-88D2-189511C763EA}">
       <formula1>"estimated, actual"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" promptTitle="Reporting Year" prompt="_x000a_" sqref="D2" xr:uid="{8613546C-FD23-472B-9C14-8A5B40E1E393}">
-      <formula1>2020</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C43CFC32-375D-4D08-A68E-496C4FF48770}">
       <formula1>"Grid average,Renewable procurement,Own supplier mix"</formula1>
@@ -4254,7 +4511,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{3A5B787E-0D19-4940-AE0C-9FAA82DB5277}">
       <formula1>$F2 = "Consumption "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B1048576" xr:uid="{C0C9F756-52F5-4A10-896A-34567A69185C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C0C9F756-52F5-4A10-896A-34567A69185C}">
       <formula1>"Purchased Electricity"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{295C801B-53DC-4D35-B6E6-CAF9A63BD3BC}">
@@ -4289,6 +4546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A4D986-ED42-460D-AA4A-C76DC763C065}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J529"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17572,6 +17830,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C3A00E-F4DA-4DF3-A0F0-198E429CC0C9}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
@@ -21785,23 +22044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -21957,25 +22199,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0DA129-3234-41F7-A2DE-1B7617DF62C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21991,4 +22232,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Templates/Purchased_Electricity.xlsx
+++ b/Templates/Purchased_Electricity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\LevelUPESG\Batch-input-Page\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FD2D0-6126-4515-B842-69AB368C091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD9CFDB-65BC-4CBD-A831-2C06FB90A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchased Electricity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="638">
   <si>
     <t>Asset Name</t>
   </si>
@@ -1847,9 +1847,6 @@
     <t>ZWD</t>
   </si>
   <si>
-    <t>Actual / Estimated</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -1868,24 +1865,6 @@
     <t>company5</t>
   </si>
   <si>
-    <t>company6</t>
-  </si>
-  <si>
-    <t>company7</t>
-  </si>
-  <si>
-    <t>company8</t>
-  </si>
-  <si>
-    <t>company9</t>
-  </si>
-  <si>
-    <t>company10</t>
-  </si>
-  <si>
-    <t>company11</t>
-  </si>
-  <si>
     <t>The fiscal year for which the data is being reported, e.g., 2021</t>
   </si>
   <si>
@@ -1899,6 +1878,69 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Actual/Estimated</t>
+  </si>
+  <si>
+    <t>Indicates whether the reported data is an actual measurement or an estimate.</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>reason 1</t>
+  </si>
+  <si>
+    <t>link l</t>
+  </si>
+  <si>
+    <t>reason 2</t>
+  </si>
+  <si>
+    <t>link 2</t>
+  </si>
+  <si>
+    <t>reason 3</t>
+  </si>
+  <si>
+    <t>reason 4</t>
+  </si>
+  <si>
+    <t>link 3</t>
+  </si>
+  <si>
+    <t>The country in which the electricity is consumed</t>
+  </si>
+  <si>
+    <t>The pricing structure applied to the electricity consumption. It details how the electricity is billed to the consumer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of value being recorded, such as Consumption or Total Spend </t>
+  </si>
+  <si>
+    <t>The total amount of electricity consumed during the reporting period, measured in kilowatt-hours (kWh)</t>
+  </si>
+  <si>
+    <t>The total cost associated with the asset for the reporting period</t>
+  </si>
+  <si>
+    <t>The currency in which the total spend is reported</t>
+  </si>
+  <si>
+    <t>The share of each energy type in the total electricity consumed</t>
+  </si>
+  <si>
+    <t>Any other fuel types contributing to the energy mix not covered by the categories above</t>
+  </si>
+  <si>
+    <t>The proportion of electricity generated from renewable sources such as solar, wind, hydro, or biomass</t>
+  </si>
+  <si>
+    <t>The percentage of electricity sourced from nuclear power</t>
+  </si>
+  <si>
+    <t>The share of electricity produced from natural gas</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +2002,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -2074,31 +2126,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}" name="Table7" displayName="Table7" ref="A1:V1683" totalsRowShown="0" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}" name="Table7" displayName="Table7" ref="A1:V1683" totalsRowShown="0" dataDxfId="26">
   <autoFilter ref="A1:V1683" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1E140E37-E478-4AA7-A20E-C89F7450FCE2}" name="Asset Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{5A319E75-01D6-4812-AB3A-812976120A4D}" name="Asset Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F26AA676-CF15-43F7-BC0B-D92AB0C22EBF}" name="Country" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{0559A132-E90C-4372-96D8-169B6B2D7F5F}" name="Reporting Year" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{ABA97DDC-FE81-4041-86D7-71ABA38BCAF1}" name="Tariff" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{3272EB4B-9B6E-4A66-A6D9-DAA423B2D6E5}" name="Value Type" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5C22D143-129C-4741-B2B0-6E7995162F95}" name="Consumption (kWh)" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E6241F5F-738A-4111-90E1-521F3060E586}" name="Total Spend" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{D476D0EA-C319-454D-A157-14872ACDB843}" name="Currency" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{1546B72B-1EFF-4247-8A7D-88E612BB1E69}" name="Actual / Estimated" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{66FAC7A4-DDE7-4406-809F-81E419FB9484}" name="Coal" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{CC2C9114-3249-46CB-9566-7446D34A6478}" name="Coal Percent" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{D1BA01D8-B969-4119-B170-29C8EF2EC7F0}" name="Natural Gas" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{B1AB1D4A-B663-4EA2-8C74-E308481EDA2C}" name="Natural Gas percent" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{221CC043-F993-4AA8-BCEA-6E9C3D11C974}" name="Nuclear" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4FB4046A-F772-4C0B-B7A3-C273B81B3121}" name="Nuclear percent" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{A10D2298-958E-4309-A58A-1B087E459CBB}" name="Renewables" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{160C808E-F115-430E-B8EB-A43DF9A84066}" name="Renewables percent" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{8CDD6B8F-FC5B-461B-9AAA-E5D717021003}" name="Other Fuel" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{C7DBF4F7-BA0C-4C60-A1F7-EF14DB869191}" name="Other Fuel percent" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1E140E37-E478-4AA7-A20E-C89F7450FCE2}" name="Asset Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{5A319E75-01D6-4812-AB3A-812976120A4D}" name="Asset Type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F26AA676-CF15-43F7-BC0B-D92AB0C22EBF}" name="Country" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{0559A132-E90C-4372-96D8-169B6B2D7F5F}" name="Reporting Year" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{ABA97DDC-FE81-4041-86D7-71ABA38BCAF1}" name="Tariff" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{3272EB4B-9B6E-4A66-A6D9-DAA423B2D6E5}" name="Value Type" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{5C22D143-129C-4741-B2B0-6E7995162F95}" name="Consumption (kWh)" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{E6241F5F-738A-4111-90E1-521F3060E586}" name="Total Spend" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{D476D0EA-C319-454D-A157-14872ACDB843}" name="Currency" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{66FAC7A4-DDE7-4406-809F-81E419FB9484}" name="Coal" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{CC2C9114-3249-46CB-9566-7446D34A6478}" name="Coal Percent" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{D1BA01D8-B969-4119-B170-29C8EF2EC7F0}" name="Natural Gas" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{B1AB1D4A-B663-4EA2-8C74-E308481EDA2C}" name="Natural Gas percent" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{221CC043-F993-4AA8-BCEA-6E9C3D11C974}" name="Nuclear" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{4FB4046A-F772-4C0B-B7A3-C273B81B3121}" name="Nuclear percent" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{A10D2298-958E-4309-A58A-1B087E459CBB}" name="Renewables" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{160C808E-F115-430E-B8EB-A43DF9A84066}" name="Renewables percent" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{8CDD6B8F-FC5B-461B-9AAA-E5D717021003}" name="Other Fuel" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{C7DBF4F7-BA0C-4C60-A1F7-EF14DB869191}" name="Other Fuel percent" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{D65BDEC1-CF3C-4940-BECF-B59F4C05CCCA}" name="Actual/Estimated" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2460,8 +2512,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V1683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,22 +2522,22 @@
     <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" customWidth="1"/>
     <col min="21" max="21" width="24.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.109375" style="2"/>
@@ -2520,37 +2572,37 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>606</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -2559,7 +2611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2567,54 +2619,90 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>627</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="1">
-        <v>524245</v>
-      </c>
-      <c r="H2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>628</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D3" s="4">
         <v>2023</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="G3" s="1">
+        <v>500</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="U3" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>27</v>
@@ -2622,28 +2710,46 @@
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="4">
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>621</v>
+        <v>221</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="4">
         <v>2023</v>
       </c>
@@ -2653,159 +2759,171 @@
       <c r="F5" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="G5" s="1">
+        <v>700</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="4">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" s="4">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H7" s="1">
+        <v>200</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D8" s="4">
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4141</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5424</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4525</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2540</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5242</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="V8" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -4477,45 +4595,50 @@
     <row r="1682" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="1683" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G2:G1683">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$F2 &lt;&gt; "Consumption "</formula>
+  <conditionalFormatting sqref="G3:G1683">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$F3 &lt;&gt; "Consumption "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I1683">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F2 &lt;&gt; "Total Spend"</formula>
+  <conditionalFormatting sqref="H3:I1683">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$F3 &lt;&gt; "Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:T1683">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="J3:S7 J9:S1683 J2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E2 &lt;&gt;"Own supplier mix"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J8:S8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E8 &lt;&gt;"Own supplier mix"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1683" xr:uid="{4CE175D7-6AAE-4B68-88D2-189511C763EA}">
-      <formula1>"estimated, actual"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C43CFC32-375D-4D08-A68E-496C4FF48770}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{C43CFC32-375D-4D08-A68E-496C4FF48770}">
       <formula1>"Grid average,Renewable procurement,Own supplier mix"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:T1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1683 K3:L1683 M2:M1683 N3:S1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
       <formula1>$E2 = "Own supplier mix"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{3DD7954C-A969-4DBB-9DC8-21E8D637BF3E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{3DD7954C-A969-4DBB-9DC8-21E8D637BF3E}">
       <formula1>"Consumption ,Total Spend"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{6D0C7ABD-820C-49E0-8F25-03AECE7E379E}">
-      <formula1>$F2 = "Total Spend"</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{6D0C7ABD-820C-49E0-8F25-03AECE7E379E}">
+      <formula1>$F3 = "Total Spend"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{3A5B787E-0D19-4940-AE0C-9FAA82DB5277}">
-      <formula1>$F2 = "Consumption "</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{3A5B787E-0D19-4940-AE0C-9FAA82DB5277}">
+      <formula1>$F3 = "Consumption "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C0C9F756-52F5-4A10-896A-34567A69185C}">
       <formula1>"Purchased Electricity"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{295C801B-53DC-4D35-B6E6-CAF9A63BD3BC}">
       <formula1>2020</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{6429D68C-FA31-4A7E-ADC4-A4150EA8A258}">
+      <formula1>"actual,estimated"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4530,13 +4653,13 @@
           <x14:formula1>
             <xm:f>'Conversion To Usd'!$C$2:$C$182</xm:f>
           </x14:formula1>
-          <xm:sqref>I1684:J1048576 I2:I1683</xm:sqref>
+          <xm:sqref>I3:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Country " prompt="Please select your country_x000a_" xr:uid="{AE621255-EB2D-4A5C-8372-089A2A5DD48E}">
           <x14:formula1>
             <xm:f>IEA!$A$2:$A$529</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22044,6 +22167,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -22199,24 +22339,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0DA129-3234-41F7-A2DE-1B7617DF62C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22232,22 +22373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Templates/Purchased_Electricity.xlsx
+++ b/Templates/Purchased_Electricity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\LevelUPESG\Batch-input-Page\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD9CFDB-65BC-4CBD-A831-2C06FB90A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE80844-FCB5-4817-94A6-216D6F781262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="14100" windowHeight="11076" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchased Electricity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="639">
   <si>
     <t>Asset Name</t>
   </si>
@@ -1941,6 +1941,9 @@
   </si>
   <si>
     <t>The share of electricity produced from natural gas</t>
+  </si>
+  <si>
+    <t>The share of electricity produced from coal</t>
   </si>
 </sst>
 </file>
@@ -2148,9 +2151,9 @@
     <tableColumn id="18" xr3:uid="{160C808E-F115-430E-B8EB-A43DF9A84066}" name="Renewables percent" dataDxfId="9"/>
     <tableColumn id="19" xr3:uid="{8CDD6B8F-FC5B-461B-9AAA-E5D717021003}" name="Other Fuel" dataDxfId="8"/>
     <tableColumn id="20" xr3:uid="{C7DBF4F7-BA0C-4C60-A1F7-EF14DB869191}" name="Other Fuel percent" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{D65BDEC1-CF3C-4940-BECF-B59F4C05CCCA}" name="Actual/Estimated" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{D65BDEC1-CF3C-4940-BECF-B59F4C05CCCA}" name="Actual/Estimated" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2513,7 +2516,7 @@
   <dimension ref="A1:V1683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2527,7 +2530,7 @@
     <col min="7" max="7" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2639,6 +2642,9 @@
       <c r="I2" s="4" t="s">
         <v>632</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>638</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>633</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4">
         <v>2023</v>
@@ -4605,21 +4611,16 @@
       <formula>$F3 &lt;&gt; "Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:S7 J9:S1683 J2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$E2 &lt;&gt;"Own supplier mix"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:S8">
+  <conditionalFormatting sqref="J3:S1683">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E8 &lt;&gt;"Own supplier mix"</formula>
+      <formula>$E3 &lt;&gt;"Own supplier mix"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{C43CFC32-375D-4D08-A68E-496C4FF48770}">
       <formula1>"Grid average,Renewable procurement,Own supplier mix"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1683 K3:L1683 M2:M1683 N3:S1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:S1683 M2:M1683 J3:L1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
       <formula1>$E2 = "Own supplier mix"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{3DD7954C-A969-4DBB-9DC8-21E8D637BF3E}">
@@ -22167,23 +22168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -22339,25 +22323,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0DA129-3234-41F7-A2DE-1B7617DF62C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22373,4 +22356,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Templates/Purchased_Electricity.xlsx
+++ b/Templates/Purchased_Electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI\LevelUPESG\Batch-input-Page\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE80844-FCB5-4817-94A6-216D6F781262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4CE100-5EEC-43A0-B768-AD4A74385EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="14100" windowHeight="11076" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3931B47E-5CA9-47BA-869F-3C1FD779CCC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchased Electricity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="632">
   <si>
     <t>Asset Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>estimated</t>
-  </si>
-  <si>
     <t>If 'Source' is marked as 'Estimated,' please provide a brief explanation in the 'Assumption Basis' column. If the source is actual, write 'N/A'</t>
   </si>
   <si>
@@ -1856,21 +1853,9 @@
     <t>company2</t>
   </si>
   <si>
-    <t>company3</t>
-  </si>
-  <si>
-    <t>company4</t>
-  </si>
-  <si>
-    <t>company5</t>
-  </si>
-  <si>
     <t>The fiscal year for which the data is being reported, e.g., 2021</t>
   </si>
   <si>
-    <t>Renewable procurement</t>
-  </si>
-  <si>
     <t>Own supplier mix</t>
   </si>
   <si>
@@ -1901,15 +1886,6 @@
     <t>link 2</t>
   </si>
   <si>
-    <t>reason 3</t>
-  </si>
-  <si>
-    <t>reason 4</t>
-  </si>
-  <si>
-    <t>link 3</t>
-  </si>
-  <si>
     <t>The country in which the electricity is consumed</t>
   </si>
   <si>
@@ -1934,16 +1910,19 @@
     <t>Any other fuel types contributing to the energy mix not covered by the categories above</t>
   </si>
   <si>
-    <t>The proportion of electricity generated from renewable sources such as solar, wind, hydro, or biomass</t>
-  </si>
-  <si>
-    <t>The percentage of electricity sourced from nuclear power</t>
-  </si>
-  <si>
-    <t>The share of electricity produced from natural gas</t>
-  </si>
-  <si>
-    <t>The share of electricity produced from coal</t>
+    <t>The share of each energy type in the total coal consumed</t>
+  </si>
+  <si>
+    <t>The share of energy produced from natural gas</t>
+  </si>
+  <si>
+    <t>The share of energy produced from coal</t>
+  </si>
+  <si>
+    <t>The percentage of energy sourced from nuclear power</t>
+  </si>
+  <si>
+    <t>The proportion of energy  generated from renewable sources such as solar, wind, hydro, or biomass</t>
   </si>
 </sst>
 </file>
@@ -2005,17 +1984,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -2129,31 +2098,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}" name="Table7" displayName="Table7" ref="A1:V1683" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}" name="Table7" displayName="Table7" ref="A1:V1683" totalsRowShown="0" dataDxfId="25">
   <autoFilter ref="A1:V1683" xr:uid="{9F0D4CA6-F7F4-45CA-A02E-33E2987DEEC0}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1E140E37-E478-4AA7-A20E-C89F7450FCE2}" name="Asset Name" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5A319E75-01D6-4812-AB3A-812976120A4D}" name="Asset Type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F26AA676-CF15-43F7-BC0B-D92AB0C22EBF}" name="Country" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{0559A132-E90C-4372-96D8-169B6B2D7F5F}" name="Reporting Year" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{ABA97DDC-FE81-4041-86D7-71ABA38BCAF1}" name="Tariff" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{3272EB4B-9B6E-4A66-A6D9-DAA423B2D6E5}" name="Value Type" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5C22D143-129C-4741-B2B0-6E7995162F95}" name="Consumption (kWh)" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{E6241F5F-738A-4111-90E1-521F3060E586}" name="Total Spend" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{D476D0EA-C319-454D-A157-14872ACDB843}" name="Currency" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{66FAC7A4-DDE7-4406-809F-81E419FB9484}" name="Coal" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{CC2C9114-3249-46CB-9566-7446D34A6478}" name="Coal Percent" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{D1BA01D8-B969-4119-B170-29C8EF2EC7F0}" name="Natural Gas" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{B1AB1D4A-B663-4EA2-8C74-E308481EDA2C}" name="Natural Gas percent" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{221CC043-F993-4AA8-BCEA-6E9C3D11C974}" name="Nuclear" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{4FB4046A-F772-4C0B-B7A3-C273B81B3121}" name="Nuclear percent" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{A10D2298-958E-4309-A58A-1B087E459CBB}" name="Renewables" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{160C808E-F115-430E-B8EB-A43DF9A84066}" name="Renewables percent" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{8CDD6B8F-FC5B-461B-9AAA-E5D717021003}" name="Other Fuel" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{C7DBF4F7-BA0C-4C60-A1F7-EF14DB869191}" name="Other Fuel percent" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{D65BDEC1-CF3C-4940-BECF-B59F4C05CCCA}" name="Actual/Estimated" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1E140E37-E478-4AA7-A20E-C89F7450FCE2}" name="Asset Name" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5A319E75-01D6-4812-AB3A-812976120A4D}" name="Asset Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{F26AA676-CF15-43F7-BC0B-D92AB0C22EBF}" name="Country" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{0559A132-E90C-4372-96D8-169B6B2D7F5F}" name="Reporting Year" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{ABA97DDC-FE81-4041-86D7-71ABA38BCAF1}" name="Tariff" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{3272EB4B-9B6E-4A66-A6D9-DAA423B2D6E5}" name="Value Type" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5C22D143-129C-4741-B2B0-6E7995162F95}" name="Consumption (kWh)" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E6241F5F-738A-4111-90E1-521F3060E586}" name="Total Spend" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{D476D0EA-C319-454D-A157-14872ACDB843}" name="Currency" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{66FAC7A4-DDE7-4406-809F-81E419FB9484}" name="Coal" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{CC2C9114-3249-46CB-9566-7446D34A6478}" name="Coal Percent" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{D1BA01D8-B969-4119-B170-29C8EF2EC7F0}" name="Natural Gas" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{B1AB1D4A-B663-4EA2-8C74-E308481EDA2C}" name="Natural Gas percent" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{221CC043-F993-4AA8-BCEA-6E9C3D11C974}" name="Nuclear" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{4FB4046A-F772-4C0B-B7A3-C273B81B3121}" name="Nuclear percent" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{A10D2298-958E-4309-A58A-1B087E459CBB}" name="Renewables" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{160C808E-F115-430E-B8EB-A43DF9A84066}" name="Renewables percent" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{8CDD6B8F-FC5B-461B-9AAA-E5D717021003}" name="Other Fuel" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{C7DBF4F7-BA0C-4C60-A1F7-EF14DB869191}" name="Other Fuel percent" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{D65BDEC1-CF3C-4940-BECF-B59F4C05CCCA}" name="Actual/Estimated" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{4E22ED4F-BB3B-4C70-8495-266CE22774D9}" name="Assumption basis" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{CC5E3CB3-3395-43B1-865A-F195D64EC842}" name="Evidence" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2516,7 +2485,7 @@
   <dimension ref="A1:V1683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2574,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -2622,296 +2591,243 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>2023</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>500</v>
       </c>
+      <c r="H3" s="1">
+        <v>35135.26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3151</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1330</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1520</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2310</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.17</v>
+      </c>
       <c r="T3" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>609</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>600</v>
       </c>
+      <c r="H4" s="1">
+        <v>35135.26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3151</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1330</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1520</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2310</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.17</v>
+      </c>
       <c r="T4" s="1" t="s">
-        <v>25</v>
+        <v>614</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G5" s="1">
-        <v>700</v>
+        <v>35135</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>25</v>
+        <v>614</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>200</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4141</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5424</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="1">
-        <v>4525</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2540</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>5242</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>621</v>
-      </c>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -4602,12 +4518,12 @@
     <row r="1683" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="G3:G1683">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F3 &lt;&gt; "Consumption "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I1683">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F3 &lt;&gt; "Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4620,8 +4536,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{C43CFC32-375D-4D08-A68E-496C4FF48770}">
       <formula1>"Grid average,Renewable procurement,Own supplier mix"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:S1683 M2:M1683 J3:L1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
-      <formula1>$E2 = "Own supplier mix"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:S1683" xr:uid="{370297D1-A668-48D3-88C3-1E6C8442072C}">
+      <formula1>$E3 = "Own supplier mix"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{3DD7954C-A969-4DBB-9DC8-21E8D637BF3E}">
       <formula1>"Consumption ,Total Spend"</formula1>
@@ -4632,7 +4548,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{3A5B787E-0D19-4940-AE0C-9FAA82DB5277}">
       <formula1>$F3 = "Consumption "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C0C9F756-52F5-4A10-896A-34567A69185C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{C0C9F756-52F5-4A10-896A-34567A69185C}">
       <formula1>"Purchased Electricity"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{295C801B-53DC-4D35-B6E6-CAF9A63BD3BC}">
@@ -4692,39 +4608,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5363</v>
@@ -4756,7 +4672,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4788,7 +4704,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.51039999999999996</v>
@@ -4820,7 +4736,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.31280000000000002</v>
@@ -4852,7 +4768,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.24129999999999999</v>
@@ -4884,7 +4800,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.30919999999999997</v>
@@ -4916,7 +4832,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.20649999999999999</v>
@@ -4948,7 +4864,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.61</v>
@@ -4980,7 +4896,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.59</v>
@@ -5012,7 +4928,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.65139999999999998</v>
@@ -5044,7 +4960,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0.13289999999999999</v>
@@ -5076,7 +4992,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0.43540000000000001</v>
@@ -5108,7 +5024,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0.69930000000000003</v>
@@ -5140,7 +5056,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0.58050000000000002</v>
@@ -5172,7 +5088,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0.32</v>
@@ -5204,7 +5120,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0.1363</v>
@@ -5236,7 +5152,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0.46479999999999999</v>
@@ -5268,7 +5184,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0.14760000000000001</v>
@@ -5300,7 +5216,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0.68859999999999999</v>
@@ -5332,7 +5248,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>1.3543000000000001</v>
@@ -5364,7 +5280,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0.13420000000000001</v>
@@ -5396,7 +5312,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0.79700000000000004</v>
@@ -5428,7 +5344,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0.41039999999999999</v>
@@ -5460,7 +5376,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0.39939999999999998</v>
@@ -5492,7 +5408,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0.26029999999999998</v>
@@ -5524,7 +5440,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0.1183</v>
@@ -5556,7 +5472,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0.37419999999999998</v>
@@ -5588,7 +5504,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0.61280000000000001</v>
@@ -5620,7 +5536,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0.57110000000000005</v>
@@ -5652,7 +5568,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>0.15290000000000001</v>
@@ -5684,7 +5600,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>4.0000000000000002E-4</v>
@@ -5716,7 +5632,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>0.3377</v>
@@ -5748,7 +5664,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>0.1497</v>
@@ -5780,7 +5696,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>0.59960000000000002</v>
@@ -5812,7 +5728,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>0.62929999999999997</v>
@@ -5844,7 +5760,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>0.60060000000000002</v>
@@ -5876,7 +5792,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>0.42470000000000002</v>
@@ -5908,7 +5824,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39">
         <v>0.45710000000000001</v>
@@ -5940,7 +5856,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>6.9999999999999999E-4</v>
@@ -5972,7 +5888,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41">
         <v>0.109</v>
@@ -6004,7 +5920,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>0.57330000000000003</v>
@@ -6036,7 +5952,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>0.13919999999999999</v>
@@ -6068,7 +5984,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>0.40239999999999998</v>
@@ -6100,7 +6016,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45">
         <v>0.10879999999999999</v>
@@ -6132,7 +6048,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46">
         <v>0.40760000000000002</v>
@@ -6164,7 +6080,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47">
         <v>0.86570000000000003</v>
@@ -6196,7 +6112,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48">
         <v>0.58630000000000004</v>
@@ -6228,7 +6144,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>2.9999999999999997E-4</v>
@@ -6260,7 +6176,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50">
         <v>0.2616</v>
@@ -6292,7 +6208,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51">
         <v>0.23430000000000001</v>
@@ -6324,7 +6240,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52">
         <v>0.2316</v>
@@ -6356,7 +6272,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53">
         <v>7.9399999999999998E-2</v>
@@ -6388,7 +6304,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54">
         <v>0.54559999999999997</v>
@@ -6420,7 +6336,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>5.2200000000000003E-2</v>
@@ -6452,7 +6368,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>0.36720000000000003</v>
@@ -6484,7 +6400,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>0.47389999999999999</v>
@@ -6516,7 +6432,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58">
         <v>0.3276</v>
@@ -6548,7 +6464,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59">
         <v>0.3327</v>
@@ -6580,7 +6496,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60">
         <v>0.5171</v>
@@ -6612,7 +6528,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61">
         <v>7.7899999999999997E-2</v>
@@ -6644,7 +6560,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62">
         <v>0.34899999999999998</v>
@@ -6676,7 +6592,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63">
         <v>0.33439999999999998</v>
@@ -6708,7 +6624,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64">
         <v>0.50539999999999996</v>
@@ -6740,7 +6656,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>0.34200000000000003</v>
@@ -6772,7 +6688,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>0.30740000000000001</v>
@@ -6804,7 +6720,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67">
         <v>0.81559999999999999</v>
@@ -6836,7 +6752,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>0.81969999999999998</v>
@@ -6868,7 +6784,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69">
         <v>0.27889999999999998</v>
@@ -6900,7 +6816,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>0.64059999999999995</v>
@@ -6932,7 +6848,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>0.19170000000000001</v>
@@ -6964,7 +6880,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72">
         <v>1E-4</v>
@@ -6996,7 +6912,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>0.71660000000000001</v>
@@ -7028,7 +6944,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>0.78349999999999997</v>
@@ -7060,7 +6976,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>0.66449999999999998</v>
@@ -7092,7 +7008,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>0.31690000000000002</v>
@@ -7124,7 +7040,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>0.48280000000000001</v>
@@ -7156,7 +7072,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>0.44259999999999999</v>
@@ -7188,7 +7104,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>0.28260000000000002</v>
@@ -7220,7 +7136,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>0.51060000000000005</v>
@@ -7252,7 +7168,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>0.46500000000000002</v>
@@ -7284,7 +7200,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82">
         <v>0.38009999999999999</v>
@@ -7316,7 +7232,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>0.48909999999999998</v>
@@ -7348,7 +7264,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84">
         <v>9.64E-2</v>
@@ -7380,7 +7296,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85">
         <v>0.151</v>
@@ -7412,7 +7328,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86">
         <v>0.45750000000000002</v>
@@ -7444,7 +7360,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87">
         <v>0.94620000000000004</v>
@@ -7476,7 +7392,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>0.61209999999999998</v>
@@ -7508,7 +7424,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89">
         <v>9.7799999999999998E-2</v>
@@ -7540,7 +7456,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>0.3221</v>
@@ -7572,7 +7488,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91">
         <v>0.1041</v>
@@ -7604,7 +7520,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>0.74270000000000003</v>
@@ -7636,7 +7552,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93">
         <v>0.63139999999999996</v>
@@ -7668,7 +7584,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94">
         <v>0.13059999999999999</v>
@@ -7700,7 +7616,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95">
         <v>0.10150000000000001</v>
@@ -7732,7 +7648,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96">
         <v>0.66010000000000002</v>
@@ -7764,7 +7680,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97">
         <v>0.62050000000000005</v>
@@ -7796,7 +7712,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B98">
         <v>0.35189999999999999</v>
@@ -7828,7 +7744,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99">
         <v>0.81010000000000004</v>
@@ -7860,7 +7776,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100">
         <v>0.4078</v>
@@ -7892,7 +7808,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101">
         <v>0.55069999999999997</v>
@@ -7924,7 +7840,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102">
         <v>1.0837000000000001</v>
@@ -7956,7 +7872,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103">
         <v>0.36820000000000003</v>
@@ -7988,7 +7904,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104">
         <v>0.72070000000000001</v>
@@ -8020,7 +7936,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105">
         <v>7.9500000000000001E-2</v>
@@ -8052,7 +7968,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106">
         <v>0.44330000000000003</v>
@@ -8084,7 +8000,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107">
         <v>3.7100000000000001E-2</v>
@@ -8116,7 +8032,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -8148,7 +8064,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B109">
         <v>0.3125</v>
@@ -8180,7 +8096,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110">
         <v>0.13539999999999999</v>
@@ -8212,7 +8128,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B111">
         <v>0.23469999999999999</v>
@@ -8244,7 +8160,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B112">
         <v>0.95620000000000005</v>
@@ -8276,7 +8192,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B113">
         <v>0.40689999999999998</v>
@@ -8308,7 +8224,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B114">
         <v>0.18820000000000001</v>
@@ -8340,7 +8256,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B115">
         <v>0.64139999999999997</v>
@@ -8372,7 +8288,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116">
         <v>0.37569999999999998</v>
@@ -8404,7 +8320,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B117">
         <v>0.55569999999999997</v>
@@ -8436,7 +8352,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <v>6.1999999999999998E-3</v>
@@ -8468,7 +8384,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B119">
         <v>0.57709999999999995</v>
@@ -8500,7 +8416,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120">
         <v>0.33879999999999999</v>
@@ -8532,7 +8448,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121">
         <v>0.47889999999999999</v>
@@ -8564,7 +8480,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B122">
         <v>0.23139999999999999</v>
@@ -8596,7 +8512,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123">
         <v>0.32919999999999999</v>
@@ -8628,7 +8544,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124">
         <v>0.39460000000000001</v>
@@ -8660,7 +8576,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125">
         <v>0.52049999999999996</v>
@@ -8692,7 +8608,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126">
         <v>0.40810000000000002</v>
@@ -8724,7 +8640,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B127">
         <v>0.61619999999999997</v>
@@ -8756,7 +8672,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B128">
         <v>0.30790000000000001</v>
@@ -8788,7 +8704,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129">
         <v>0.36990000000000001</v>
@@ -8820,7 +8736,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130">
         <v>0.29149999999999998</v>
@@ -8852,7 +8768,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -8884,7 +8800,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132">
         <v>0.61270000000000002</v>
@@ -8916,7 +8832,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B133">
         <v>0.1862</v>
@@ -8948,7 +8864,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134">
         <v>0.71089999999999998</v>
@@ -8980,7 +8896,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B135">
         <v>0.30199999999999999</v>
@@ -9012,7 +8928,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136">
         <v>0.65069999999999995</v>
@@ -9044,7 +8960,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137">
         <v>0.15160000000000001</v>
@@ -9076,7 +8992,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138">
         <v>0.4768</v>
@@ -9108,7 +9024,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B139">
         <v>0.49</v>
@@ -9140,7 +9056,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B140">
         <v>0.56479999999999997</v>
@@ -9172,7 +9088,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141">
         <v>0.57299999999999995</v>
@@ -9204,7 +9120,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142">
         <v>0.42320000000000002</v>
@@ -9236,7 +9152,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143">
         <v>0.27229999999999999</v>
@@ -9268,7 +9184,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144">
         <v>0.36359999999999998</v>
@@ -9300,7 +9216,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B145">
         <v>0.32240000000000002</v>
@@ -9332,7 +9248,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146">
         <v>0.61250000000000004</v>
@@ -9364,7 +9280,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B147">
         <v>0.58930000000000005</v>
@@ -9396,7 +9312,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B148">
         <v>0.70879999999999999</v>
@@ -9428,7 +9344,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B149">
         <v>0.38329999999999997</v>
@@ -9460,7 +9376,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150">
         <v>0.13639999999999999</v>
@@ -9492,7 +9408,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151">
         <v>0.22639999999999999</v>
@@ -9524,7 +9440,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152">
         <v>0.90039999999999998</v>
@@ -9556,7 +9472,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B153">
         <v>0.83620000000000005</v>
@@ -9588,7 +9504,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154">
         <v>0.15060000000000001</v>
@@ -9620,7 +9536,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B155">
         <v>0.50590000000000002</v>
@@ -9652,7 +9568,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156">
         <v>0.26529999999999998</v>
@@ -9684,7 +9600,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B157">
         <v>0.52149999999999996</v>
@@ -9716,7 +9632,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158">
         <v>1.14E-2</v>
@@ -9748,7 +9664,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B159">
         <v>2.58E-2</v>
@@ -9780,7 +9696,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160">
         <v>0.66610000000000003</v>
@@ -9812,7 +9728,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161">
         <v>5.5100000000000003E-2</v>
@@ -9844,7 +9760,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B162">
         <v>0.47089999999999999</v>
@@ -9876,7 +9792,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B163">
         <v>0.34949999999999998</v>
@@ -9908,7 +9824,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B164">
         <v>0.54720000000000002</v>
@@ -9940,7 +9856,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165">
         <v>0.42180000000000001</v>
@@ -9972,7 +9888,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B166">
         <v>0.67479999999999996</v>
@@ -10004,7 +9920,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B167">
         <v>8.8000000000000005E-3</v>
@@ -10036,7 +9952,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168">
         <v>0.28989999999999999</v>
@@ -10068,7 +9984,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B169">
         <v>0.47460000000000002</v>
@@ -10100,7 +10016,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B170">
         <v>0.20630000000000001</v>
@@ -10132,7 +10048,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171">
         <v>0.32140000000000002</v>
@@ -10196,7 +10112,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B173">
         <v>9.0899999999999995E-2</v>
@@ -10228,7 +10144,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174">
         <v>0.52470000000000006</v>
@@ -10260,7 +10176,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175">
         <v>0.56479999999999997</v>
@@ -10292,7 +10208,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176">
         <v>0.46629999999999999</v>
@@ -10324,7 +10240,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177">
         <v>0.63419999999999999</v>
@@ -10356,7 +10272,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B178">
         <v>8.8700000000000001E-2</v>
@@ -10388,7 +10304,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B179">
         <v>0.46089999999999998</v>
@@ -10420,7 +10336,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D180">
         <v>0.59050000000000002</v>
@@ -10446,7 +10362,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -10472,7 +10388,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D182">
         <v>0.48430000000000001</v>
@@ -10498,7 +10414,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D183">
         <v>0.29930000000000001</v>
@@ -10524,7 +10440,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D184">
         <v>0.28799999999999998</v>
@@ -10550,7 +10466,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D185">
         <v>0.1762</v>
@@ -10576,7 +10492,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D186">
         <v>0.19639999999999999</v>
@@ -10602,7 +10518,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D187">
         <v>0.68779999999999997</v>
@@ -10628,7 +10544,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D188">
         <v>0.44009999999999999</v>
@@ -10654,7 +10570,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D189">
         <v>0.68879999999999997</v>
@@ -10680,7 +10596,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D190">
         <v>0.46589999999999998</v>
@@ -10706,7 +10622,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D191">
         <v>0.36580000000000001</v>
@@ -10732,7 +10648,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D192">
         <v>0.17050000000000001</v>
@@ -10758,7 +10674,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D193">
         <v>0.51700000000000002</v>
@@ -10784,7 +10700,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D194">
         <v>0.3145</v>
@@ -10810,7 +10726,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D195">
         <v>0.73470000000000002</v>
@@ -10836,7 +10752,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D196">
         <v>1.2642</v>
@@ -10862,7 +10778,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D197">
         <v>0.10440000000000001</v>
@@ -10888,7 +10804,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D198">
         <v>0.68659999999999999</v>
@@ -10914,7 +10830,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D199">
         <v>0.43730000000000002</v>
@@ -10940,7 +10856,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D200">
         <v>0.54179999999999995</v>
@@ -10966,7 +10882,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D201">
         <v>0.27329999999999999</v>
@@ -10992,7 +10908,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D202">
         <v>0.13489999999999999</v>
@@ -11018,7 +10934,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D203">
         <v>0.44359999999999999</v>
@@ -11044,7 +10960,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D204">
         <v>0.62660000000000005</v>
@@ -11070,7 +10986,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D205">
         <v>0.55600000000000005</v>
@@ -11096,7 +11012,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D206">
         <v>0.19270000000000001</v>
@@ -11122,7 +11038,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D207">
         <v>5.8999999999999999E-3</v>
@@ -11148,7 +11064,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D208">
         <v>0.33360000000000001</v>
@@ -11174,7 +11090,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D209">
         <v>0.1784</v>
@@ -11200,7 +11116,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D210">
         <v>0.64700000000000002</v>
@@ -11226,7 +11142,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D211">
         <v>0.62109999999999999</v>
@@ -11252,7 +11168,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D212">
         <v>0.63439999999999996</v>
@@ -11278,7 +11194,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D213">
         <v>0.44240000000000002</v>
@@ -11304,7 +11220,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D214">
         <v>0.24479999999999999</v>
@@ -11330,7 +11246,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D215">
         <v>1.1000000000000001E-3</v>
@@ -11356,7 +11272,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D216">
         <v>0.1207</v>
@@ -11382,7 +11298,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D217">
         <v>0.58919999999999995</v>
@@ -11408,7 +11324,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D218">
         <v>0.15029999999999999</v>
@@ -11434,7 +11350,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D219">
         <v>0.50380000000000003</v>
@@ -11460,7 +11376,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D220">
         <v>0.19700000000000001</v>
@@ -11486,7 +11402,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D221">
         <v>0.40849999999999997</v>
@@ -11512,7 +11428,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D222">
         <v>0.85199999999999998</v>
@@ -11538,7 +11454,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D223">
         <v>0.45250000000000001</v>
@@ -11564,7 +11480,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D224">
         <v>2.9999999999999997E-4</v>
@@ -11590,7 +11506,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D225">
         <v>0.104</v>
@@ -11616,7 +11532,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D226">
         <v>5.6899999999999999E-2</v>
@@ -11642,7 +11558,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D227">
         <v>0.57840000000000003</v>
@@ -11668,7 +11584,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D228">
         <v>0.1137</v>
@@ -11694,7 +11610,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D229">
         <v>0.33310000000000001</v>
@@ -11720,7 +11636,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D230">
         <v>0.33860000000000001</v>
@@ -11746,7 +11662,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D231">
         <v>0.6623</v>
@@ -11772,7 +11688,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D232">
         <v>0.48770000000000002</v>
@@ -11798,7 +11714,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D233">
         <v>0.41149999999999998</v>
@@ -11824,7 +11740,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D234">
         <v>0.86360000000000003</v>
@@ -11850,7 +11766,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D235">
         <v>0.81789999999999996</v>
@@ -11876,7 +11792,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D236">
         <v>0.33500000000000002</v>
@@ -11902,7 +11818,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D237">
         <v>0.8226</v>
@@ -11928,7 +11844,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D238">
         <v>0.2195</v>
@@ -11954,7 +11870,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D239">
         <v>2.0000000000000001E-4</v>
@@ -11980,7 +11896,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D240">
         <v>0.72609999999999997</v>
@@ -12006,7 +11922,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D241">
         <v>0.76629999999999998</v>
@@ -12032,7 +11948,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D242">
         <v>0.71840000000000004</v>
@@ -12058,7 +11974,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D243">
         <v>0.28970000000000001</v>
@@ -12084,7 +12000,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D244">
         <v>0.4929</v>
@@ -12110,7 +12026,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D245">
         <v>0.47989999999999999</v>
@@ -12136,7 +12052,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D246">
         <v>0.25719999999999998</v>
@@ -12162,7 +12078,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D247">
         <v>0.65300000000000002</v>
@@ -12188,7 +12104,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D248">
         <v>0.48880000000000001</v>
@@ -12214,7 +12130,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D249">
         <v>0.42030000000000001</v>
@@ -12240,7 +12156,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D250">
         <v>0.64</v>
@@ -12266,7 +12182,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D251">
         <v>0.1076</v>
@@ -12292,7 +12208,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D252">
         <v>0.51729999999999998</v>
@@ -12318,7 +12234,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D253">
         <v>0.99539999999999995</v>
@@ -12344,7 +12260,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D254">
         <v>0.60899999999999999</v>
@@ -12370,7 +12286,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D255">
         <v>5.5800000000000002E-2</v>
@@ -12396,7 +12312,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D256">
         <v>0.45019999999999999</v>
@@ -12422,7 +12338,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D257">
         <v>0.2964</v>
@@ -12448,7 +12364,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D258">
         <v>0.72109999999999996</v>
@@ -12474,7 +12390,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D259">
         <v>0.64249999999999996</v>
@@ -12500,7 +12416,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D260">
         <v>0.19570000000000001</v>
@@ -12526,7 +12442,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D261">
         <v>0.2646</v>
@@ -12552,7 +12468,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D262">
         <v>0.66490000000000005</v>
@@ -12578,7 +12494,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D263">
         <v>0.36080000000000001</v>
@@ -12604,7 +12520,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D264">
         <v>0.75519999999999998</v>
@@ -12630,7 +12546,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D265">
         <v>0.32429999999999998</v>
@@ -12656,7 +12572,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D266">
         <v>0.63170000000000004</v>
@@ -12682,7 +12598,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D267">
         <v>0.60589999999999999</v>
@@ -12708,7 +12624,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D268">
         <v>0.58330000000000004</v>
@@ -12734,7 +12650,7 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D269">
         <v>1.5844</v>
@@ -12760,7 +12676,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D270">
         <v>0.27689999999999998</v>
@@ -12786,7 +12702,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D271">
         <v>0.2492</v>
@@ -12812,7 +12728,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D272">
         <v>0.24540000000000001</v>
@@ -12838,7 +12754,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D273">
         <v>0.59370000000000001</v>
@@ -12864,7 +12780,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D274">
         <v>6.54E-2</v>
@@ -12890,7 +12806,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D275">
         <v>0.53210000000000002</v>
@@ -12916,7 +12832,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D276">
         <v>0.57950000000000002</v>
@@ -12942,7 +12858,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D277">
         <v>0.9617</v>
@@ -12968,7 +12884,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D278">
         <v>0.60880000000000001</v>
@@ -12994,7 +12910,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D279">
         <v>0.5776</v>
@@ -13020,7 +12936,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D280">
         <v>0.36720000000000003</v>
@@ -13046,7 +12962,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D281">
         <v>6.8000000000000005E-2</v>
@@ -13072,7 +12988,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D282">
         <v>0.3977</v>
@@ -13098,7 +13014,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D283">
         <v>0.56730000000000003</v>
@@ -13124,7 +13040,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D284">
         <v>1.0959000000000001</v>
@@ -13150,7 +13066,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D285">
         <v>0.44690000000000002</v>
@@ -13176,7 +13092,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D286">
         <v>0.69889999999999997</v>
@@ -13202,7 +13118,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D287">
         <v>8.5300000000000001E-2</v>
@@ -13228,7 +13144,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D288">
         <v>0.47420000000000001</v>
@@ -13254,7 +13170,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D289">
         <v>6.5000000000000002E-2</v>
@@ -13280,7 +13196,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -13306,7 +13222,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D291">
         <v>0.35260000000000002</v>
@@ -13332,7 +13248,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D292">
         <v>0.1226</v>
@@ -13358,7 +13274,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D293">
         <v>0.312</v>
@@ -13384,7 +13300,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D294">
         <v>0.96550000000000002</v>
@@ -13410,7 +13326,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D295">
         <v>0.40989999999999999</v>
@@ -13436,7 +13352,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D296">
         <v>0.1847</v>
@@ -13462,7 +13378,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D297">
         <v>0.65259999999999996</v>
@@ -13488,7 +13404,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D298">
         <v>0.40679999999999999</v>
@@ -13514,7 +13430,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D299">
         <v>1.61E-2</v>
@@ -13540,7 +13456,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D300">
         <v>0.3533</v>
@@ -13566,7 +13482,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D301">
         <v>0.51470000000000005</v>
@@ -13592,7 +13508,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D302">
         <v>0.2424</v>
@@ -13618,7 +13534,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D303">
         <v>0.40160000000000001</v>
@@ -13644,7 +13560,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D304">
         <v>0.3584</v>
@@ -13670,7 +13586,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D305">
         <v>0.62370000000000003</v>
@@ -13696,7 +13612,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D306">
         <v>0.3755</v>
@@ -13722,7 +13638,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D307">
         <v>0.35089999999999999</v>
@@ -13748,7 +13664,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D308">
         <v>0.4158</v>
@@ -13774,7 +13690,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -13800,7 +13716,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D310">
         <v>0.62570000000000003</v>
@@ -13826,7 +13742,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D311">
         <v>0.20219999999999999</v>
@@ -13852,7 +13768,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D312">
         <v>0.67530000000000001</v>
@@ -13878,7 +13794,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D313">
         <v>0.33350000000000002</v>
@@ -13904,7 +13820,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D314">
         <v>0.62780000000000002</v>
@@ -13930,7 +13846,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D315">
         <v>0.23230000000000001</v>
@@ -13956,7 +13872,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D316">
         <v>0.4793</v>
@@ -13982,7 +13898,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D317">
         <v>0.48909999999999998</v>
@@ -14008,7 +13924,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D318">
         <v>0.71750000000000003</v>
@@ -14034,7 +13950,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D319">
         <v>0.5837</v>
@@ -14060,7 +13976,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D320">
         <v>0.34520000000000001</v>
@@ -14086,7 +14002,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D321">
         <v>0.375</v>
@@ -14112,7 +14028,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D322">
         <v>0.6169</v>
@@ -14138,7 +14054,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D323">
         <v>0.76649999999999996</v>
@@ -14164,7 +14080,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D324">
         <v>0.74519999999999997</v>
@@ -14190,7 +14106,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D325">
         <v>0.3866</v>
@@ -14216,7 +14132,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D326">
         <v>0.25380000000000003</v>
@@ -14242,7 +14158,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D327">
         <v>0.21149999999999999</v>
@@ -14268,7 +14184,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D328">
         <v>0.93659999999999999</v>
@@ -14294,7 +14210,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D329">
         <v>0.77449999999999997</v>
@@ -14320,7 +14236,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D330">
         <v>0.19259999999999999</v>
@@ -14346,7 +14262,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D331">
         <v>0.61080000000000001</v>
@@ -14372,7 +14288,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D332">
         <v>0.31309999999999999</v>
@@ -14398,7 +14314,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D333">
         <v>0.52769999999999995</v>
@@ -14424,7 +14340,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D334">
         <v>1.5900000000000001E-2</v>
@@ -14450,7 +14366,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D335">
         <v>8.1900000000000001E-2</v>
@@ -14476,7 +14392,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D336">
         <v>0.66210000000000002</v>
@@ -14502,7 +14418,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D337">
         <v>7.3200000000000001E-2</v>
@@ -14528,7 +14444,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D338">
         <v>0.46550000000000002</v>
@@ -14554,7 +14470,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D339">
         <v>0.28660000000000002</v>
@@ -14580,7 +14496,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D340">
         <v>0.56479999999999997</v>
@@ -14606,7 +14522,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D341">
         <v>0.42530000000000001</v>
@@ -14632,7 +14548,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D342">
         <v>0.43290000000000001</v>
@@ -14658,7 +14574,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D343">
         <v>0.8911</v>
@@ -14684,7 +14600,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D344">
         <v>0.36770000000000003</v>
@@ -14710,7 +14626,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D345">
         <v>0.50509999999999999</v>
@@ -14736,7 +14652,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D346">
         <v>0.39829999999999999</v>
@@ -14788,7 +14704,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D348">
         <v>1.2200000000000001E-2</v>
@@ -14814,7 +14730,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D349">
         <v>0.4955</v>
@@ -14840,7 +14756,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D350">
         <v>0.6522</v>
@@ -14866,7 +14782,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D351">
         <v>0.47699999999999998</v>
@@ -14892,7 +14808,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D352">
         <v>0.68540000000000001</v>
@@ -14918,7 +14834,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D353">
         <v>0.15970000000000001</v>
@@ -14944,7 +14860,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D354">
         <v>0.82120000000000004</v>
@@ -14970,7 +14886,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D355">
         <v>0.54359999999999997</v>
@@ -14987,7 +14903,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -15004,7 +14920,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D357">
         <v>0.48720000000000002</v>
@@ -15021,7 +14937,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D358">
         <v>0.29820000000000002</v>
@@ -15038,7 +14954,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D359">
         <v>0.23930000000000001</v>
@@ -15055,7 +14971,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D360">
         <v>0.27360000000000001</v>
@@ -15072,7 +14988,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D361">
         <v>0.18149999999999999</v>
@@ -15089,7 +15005,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D362">
         <v>0.62949999999999995</v>
@@ -15106,7 +15022,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D363">
         <v>0.59330000000000005</v>
@@ -15123,7 +15039,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D364">
         <v>0.68120000000000003</v>
@@ -15140,7 +15056,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D365">
         <v>0.17369999999999999</v>
@@ -15157,7 +15073,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D366">
         <v>0.44030000000000002</v>
@@ -15174,7 +15090,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D367">
         <v>0.69940000000000002</v>
@@ -15191,7 +15107,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D368">
         <v>0.54459999999999997</v>
@@ -15208,7 +15124,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D369">
         <v>0.36399999999999999</v>
@@ -15225,7 +15141,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D370">
         <v>0.1706</v>
@@ -15242,7 +15158,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D371">
         <v>0.51180000000000003</v>
@@ -15259,7 +15175,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D372">
         <v>9.5899999999999999E-2</v>
@@ -15276,7 +15192,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D373">
         <v>0.79969999999999997</v>
@@ -15293,7 +15209,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D374">
         <v>1.3576999999999999</v>
@@ -15310,7 +15226,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D375">
         <v>9.3399999999999997E-2</v>
@@ -15327,7 +15243,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D376">
         <v>0.89349999999999996</v>
@@ -15344,7 +15260,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D377">
         <v>0.375</v>
@@ -15361,7 +15277,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D378">
         <v>0.49640000000000001</v>
@@ -15378,7 +15294,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D379">
         <v>0.27539999999999998</v>
@@ -15395,7 +15311,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D380">
         <v>0.1236</v>
@@ -15412,7 +15328,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -15429,7 +15345,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D382">
         <v>0.41980000000000001</v>
@@ -15446,7 +15362,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D383">
         <v>0.61770000000000003</v>
@@ -15463,7 +15379,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D384">
         <v>0.54810000000000003</v>
@@ -15480,7 +15396,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D385">
         <v>0.2306</v>
@@ -15497,7 +15413,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D386">
         <v>1.8E-3</v>
@@ -15514,7 +15430,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D387">
         <v>0.31640000000000001</v>
@@ -15531,7 +15447,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D388">
         <v>0.16769999999999999</v>
@@ -15548,7 +15464,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D389">
         <v>0.67900000000000005</v>
@@ -15565,7 +15481,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D390">
         <v>0.53249999999999997</v>
@@ -15582,7 +15498,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D391">
         <v>0.61850000000000005</v>
@@ -15599,7 +15515,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D392">
         <v>0.40820000000000001</v>
@@ -15616,7 +15532,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D393">
         <v>0.2041</v>
@@ -15633,7 +15549,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D394">
         <v>1.1000000000000001E-3</v>
@@ -15650,7 +15566,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D395">
         <v>8.9200000000000002E-2</v>
@@ -15667,7 +15583,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D396">
         <v>0.53469999999999995</v>
@@ -15684,7 +15600,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D397">
         <v>0.1459</v>
@@ -15701,7 +15617,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D398">
         <v>0.3831</v>
@@ -15718,7 +15634,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D399">
         <v>0.12139999999999999</v>
@@ -15735,7 +15651,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D400">
         <v>0.39660000000000001</v>
@@ -15752,7 +15668,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D401">
         <v>0.82530000000000003</v>
@@ -15769,7 +15685,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D402">
         <v>0.26579999999999998</v>
@@ -15786,7 +15702,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D403">
         <v>2.9999999999999997E-4</v>
@@ -15803,7 +15719,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D404">
         <v>0.2545</v>
@@ -15820,7 +15736,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D405">
         <v>0.22170000000000001</v>
@@ -15837,7 +15753,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D406">
         <v>0.21909999999999999</v>
@@ -15854,7 +15770,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D407">
         <v>6.9199999999999998E-2</v>
@@ -15871,7 +15787,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D408">
         <v>0.59770000000000001</v>
@@ -15888,7 +15804,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D409">
         <v>5.5399999999999998E-2</v>
@@ -15905,7 +15821,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D410">
         <v>0.37390000000000001</v>
@@ -15922,7 +15838,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D411">
         <v>0.46550000000000002</v>
@@ -15939,7 +15855,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D412">
         <v>0.317</v>
@@ -15956,7 +15872,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D413">
         <v>0.32269999999999999</v>
@@ -15973,7 +15889,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D414">
         <v>0.5806</v>
@@ -15990,7 +15906,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D415">
         <v>0.1096</v>
@@ -16007,7 +15923,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D416">
         <v>0.29849999999999999</v>
@@ -16024,7 +15940,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D417">
         <v>0.32319999999999999</v>
@@ -16041,7 +15957,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D418">
         <v>0.50539999999999996</v>
@@ -16058,7 +15974,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D419">
         <v>0.37930000000000003</v>
@@ -16075,7 +15991,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D420">
         <v>0.2969</v>
@@ -16092,7 +16008,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D421">
         <v>0.81910000000000005</v>
@@ -16109,7 +16025,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D422">
         <v>0.81789999999999996</v>
@@ -16126,7 +16042,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D423">
         <v>0.32969999999999999</v>
@@ -16143,7 +16059,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D424">
         <v>0.64119999999999999</v>
@@ -16160,7 +16076,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D425">
         <v>0.20380000000000001</v>
@@ -16177,7 +16093,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D426">
         <v>1E-4</v>
@@ -16194,7 +16110,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D427">
         <v>0.69289999999999996</v>
@@ -16211,7 +16127,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D428">
         <v>0.77549999999999997</v>
@@ -16228,7 +16144,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D429">
         <v>0.66449999999999998</v>
@@ -16245,7 +16161,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D430">
         <v>0.2631</v>
@@ -16262,7 +16178,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D431">
         <v>0.49259999999999998</v>
@@ -16279,7 +16195,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D432">
         <v>0.46179999999999999</v>
@@ -16296,7 +16212,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D433">
         <v>0.24229999999999999</v>
@@ -16313,7 +16229,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D434">
         <v>0.4879</v>
@@ -16330,7 +16246,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D435">
         <v>0.47820000000000001</v>
@@ -16347,7 +16263,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D436">
         <v>0.39119999999999999</v>
@@ -16364,7 +16280,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D437">
         <v>0.57530000000000003</v>
@@ -16381,7 +16297,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D438">
         <v>6.1499999999999999E-2</v>
@@ -16398,7 +16314,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D439">
         <v>0.1555</v>
@@ -16415,7 +16331,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D440">
         <v>0.46710000000000002</v>
@@ -16432,7 +16348,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D441">
         <v>0.9587</v>
@@ -16449,7 +16365,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D442">
         <v>0.61599999999999999</v>
@@ -16466,7 +16382,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D443">
         <v>5.4899999999999997E-2</v>
@@ -16483,7 +16399,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D444">
         <v>0.34499999999999997</v>
@@ -16500,7 +16416,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D445">
         <v>0.214</v>
@@ -16517,7 +16433,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D446">
         <v>0.70940000000000003</v>
@@ -16534,7 +16450,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D447">
         <v>0.63200000000000001</v>
@@ -16551,7 +16467,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D448">
         <v>0.17630000000000001</v>
@@ -16568,7 +16484,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D449">
         <v>0.2341</v>
@@ -16585,7 +16501,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D450">
         <v>0.55630000000000002</v>
@@ -16602,7 +16518,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D451">
         <v>0.65369999999999995</v>
@@ -16619,7 +16535,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D452">
         <v>0.3836</v>
@@ -16636,7 +16552,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D453">
         <v>0.76700000000000002</v>
@@ -16653,7 +16569,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D454">
         <v>0.3982</v>
@@ -16670,7 +16586,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D455">
         <v>0.56310000000000004</v>
@@ -16687,7 +16603,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D456">
         <v>1.0948</v>
@@ -16704,7 +16620,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D457">
         <v>0.47320000000000001</v>
@@ -16721,7 +16637,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D458">
         <v>0.71930000000000005</v>
@@ -16738,7 +16654,7 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D459">
         <v>7.8399999999999997E-2</v>
@@ -16755,7 +16671,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D460">
         <v>0.41439999999999999</v>
@@ -16772,7 +16688,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D461">
         <v>4.41E-2</v>
@@ -16789,7 +16705,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -16806,7 +16722,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D463">
         <v>0.2868</v>
@@ -16823,7 +16739,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D464">
         <v>0.12959999999999999</v>
@@ -16840,7 +16756,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D465">
         <v>0.2329</v>
@@ -16857,7 +16773,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D466">
         <v>1.0194000000000001</v>
@@ -16874,7 +16790,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D467">
         <v>0.4178</v>
@@ -16891,7 +16807,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D468">
         <v>0.15670000000000001</v>
@@ -16908,7 +16824,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D469">
         <v>0.63649999999999995</v>
@@ -16925,7 +16841,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D470">
         <v>0.38550000000000001</v>
@@ -16942,7 +16858,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D471">
         <v>7.4000000000000003E-3</v>
@@ -16959,7 +16875,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D472">
         <v>0.60570000000000002</v>
@@ -16976,7 +16892,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D473">
         <v>0.32729999999999998</v>
@@ -16993,7 +16909,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D474">
         <v>0.49370000000000003</v>
@@ -17010,7 +16926,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D475">
         <v>0.21870000000000001</v>
@@ -17027,7 +16943,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D476">
         <v>0.39169999999999999</v>
@@ -17044,7 +16960,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D477">
         <v>0.39560000000000001</v>
@@ -17061,7 +16977,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D478">
         <v>0.61080000000000001</v>
@@ -17078,7 +16994,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D479">
         <v>0.31929999999999997</v>
@@ -17095,7 +17011,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D480">
         <v>0.39589999999999997</v>
@@ -17112,7 +17028,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D481">
         <v>0.33139999999999997</v>
@@ -17129,7 +17045,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -17146,7 +17062,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D483">
         <v>0.61760000000000004</v>
@@ -17163,7 +17079,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D484">
         <v>0.17780000000000001</v>
@@ -17180,7 +17096,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D485">
         <v>0.71199999999999997</v>
@@ -17197,7 +17113,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D486">
         <v>0.32019999999999998</v>
@@ -17214,7 +17130,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D487">
         <v>0.58250000000000002</v>
@@ -17231,7 +17147,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D488">
         <v>0.18149999999999999</v>
@@ -17248,7 +17164,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D489">
         <v>0.4854</v>
@@ -17265,7 +17181,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D490">
         <v>0.49480000000000002</v>
@@ -17282,7 +17198,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D491">
         <v>0.63670000000000004</v>
@@ -17299,7 +17215,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D492">
         <v>0.41339999999999999</v>
@@ -17316,7 +17232,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D493">
         <v>0.58120000000000005</v>
@@ -17333,7 +17249,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D494">
         <v>0.27410000000000001</v>
@@ -17350,7 +17266,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D495">
         <v>0.3599</v>
@@ -17367,7 +17283,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D496">
         <v>0.25230000000000002</v>
@@ -17384,7 +17300,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D497">
         <v>0.61180000000000001</v>
@@ -17401,7 +17317,7 @@
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D498">
         <v>0.55940000000000001</v>
@@ -17418,7 +17334,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D499">
         <v>0.76729999999999998</v>
@@ -17435,7 +17351,7 @@
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D500">
         <v>0.38550000000000001</v>
@@ -17452,7 +17368,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D501">
         <v>0.2346</v>
@@ -17469,7 +17385,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D502">
         <v>0.20319999999999999</v>
@@ -17486,7 +17402,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D503">
         <v>0.92849999999999999</v>
@@ -17503,7 +17419,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D504">
         <v>0.84430000000000005</v>
@@ -17520,7 +17436,7 @@
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D505">
         <v>0.15029999999999999</v>
@@ -17537,7 +17453,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D506">
         <v>0.60870000000000002</v>
@@ -17554,7 +17470,7 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D507">
         <v>0.30669999999999997</v>
@@ -17571,7 +17487,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D508">
         <v>0.52339999999999998</v>
@@ -17588,7 +17504,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D509">
         <v>1.18E-2</v>
@@ -17605,7 +17521,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D510">
         <v>7.4300000000000005E-2</v>
@@ -17622,7 +17538,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D511">
         <v>0.67100000000000004</v>
@@ -17639,7 +17555,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D512">
         <v>7.1999999999999995E-2</v>
@@ -17656,7 +17572,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D513">
         <v>0.47670000000000001</v>
@@ -17673,7 +17589,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D514">
         <v>0.33169999999999999</v>
@@ -17690,7 +17606,7 @@
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D515">
         <v>0.52649999999999997</v>
@@ -17707,7 +17623,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D516">
         <v>0.42380000000000001</v>
@@ -17724,7 +17640,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D517">
         <v>0.69950000000000001</v>
@@ -17741,7 +17657,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D518">
         <v>1.2999999999999999E-2</v>
@@ -17758,7 +17674,7 @@
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D519">
         <v>0.33450000000000002</v>
@@ -17775,7 +17691,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D520">
         <v>0.52849999999999997</v>
@@ -17792,7 +17708,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D521">
         <v>0.33600000000000002</v>
@@ -17826,7 +17742,7 @@
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D523">
         <v>4.0300000000000002E-2</v>
@@ -17843,7 +17759,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D524">
         <v>0.46939999999999998</v>
@@ -17860,7 +17776,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D525">
         <v>0.63149999999999995</v>
@@ -17877,7 +17793,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D526">
         <v>0.4612</v>
@@ -17894,7 +17810,7 @@
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D527">
         <v>0.64949999999999997</v>
@@ -17911,7 +17827,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D528">
         <v>0.15909999999999999</v>
@@ -17928,7 +17844,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D529">
         <v>0.57589999999999997</v>
@@ -17974,36 +17890,36 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -18012,21 +17928,21 @@
         <v>77.341999999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -18043,13 +17959,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
         <v>236</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -18066,13 +17982,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -18089,13 +18005,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -18112,13 +18028,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
         <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -18135,13 +18051,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
         <v>245</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -18158,13 +18074,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>248</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -18181,13 +18097,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -18204,13 +18120,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" t="s">
-        <v>252</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -18227,13 +18143,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>254</v>
-      </c>
-      <c r="C12" t="s">
-        <v>255</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -18250,13 +18166,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
         <v>256</v>
-      </c>
-      <c r="C13" t="s">
-        <v>257</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -18273,13 +18189,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
         <v>258</v>
-      </c>
-      <c r="C14" t="s">
-        <v>259</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -18296,13 +18212,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
         <v>260</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>261</v>
-      </c>
-      <c r="C15" t="s">
-        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -18319,13 +18235,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" t="s">
         <v>263</v>
-      </c>
-      <c r="C16" t="s">
-        <v>264</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -18342,13 +18258,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -18365,13 +18281,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s">
         <v>266</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>267</v>
-      </c>
-      <c r="C18" t="s">
-        <v>268</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -18388,13 +18304,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
         <v>269</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -18411,13 +18327,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
         <v>271</v>
       </c>
-      <c r="B20" t="s">
-        <v>272</v>
-      </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -18434,13 +18350,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
         <v>273</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>274</v>
-      </c>
-      <c r="C21" t="s">
-        <v>275</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -18457,13 +18373,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" t="s">
-        <v>277</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -18480,13 +18396,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" t="s">
         <v>278</v>
-      </c>
-      <c r="C23" t="s">
-        <v>279</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -18503,13 +18419,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" t="s">
         <v>280</v>
-      </c>
-      <c r="C24" t="s">
-        <v>281</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -18526,13 +18442,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
         <v>282</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>283</v>
-      </c>
-      <c r="C25" t="s">
-        <v>284</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -18549,13 +18465,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
         <v>285</v>
-      </c>
-      <c r="C26" t="s">
-        <v>286</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -18572,13 +18488,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -18595,13 +18511,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s">
         <v>288</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>289</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -18618,13 +18534,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
         <v>291</v>
-      </c>
-      <c r="C29" t="s">
-        <v>292</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -18641,13 +18557,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" t="s">
         <v>293</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -18664,13 +18580,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
         <v>295</v>
-      </c>
-      <c r="C31" t="s">
-        <v>296</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -18687,13 +18603,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
         <v>297</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>298</v>
-      </c>
-      <c r="C32" t="s">
-        <v>299</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -18710,13 +18626,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" t="s">
         <v>300</v>
       </c>
-      <c r="B33" t="s">
-        <v>301</v>
-      </c>
       <c r="C33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -18733,13 +18649,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -18756,13 +18672,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" t="s">
         <v>303</v>
-      </c>
-      <c r="C35" t="s">
-        <v>304</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -18779,13 +18695,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s">
         <v>305</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>306</v>
-      </c>
-      <c r="C36" t="s">
-        <v>307</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -18802,13 +18718,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" t="s">
         <v>308</v>
-      </c>
-      <c r="C37" t="s">
-        <v>309</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -18825,13 +18741,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" t="s">
         <v>310</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>311</v>
-      </c>
-      <c r="C38" t="s">
-        <v>312</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -18848,13 +18764,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s">
         <v>313</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>314</v>
-      </c>
-      <c r="C39" t="s">
-        <v>315</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -18871,13 +18787,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" t="s">
         <v>316</v>
       </c>
-      <c r="B40" t="s">
-        <v>317</v>
-      </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -18889,18 +18805,18 @@
         <v>2005.0519999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" t="s">
         <v>318</v>
-      </c>
-      <c r="C41" t="s">
-        <v>319</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -18917,13 +18833,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -18940,13 +18856,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" t="s">
         <v>321</v>
-      </c>
-      <c r="C43" t="s">
-        <v>322</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -18963,13 +18879,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -18986,13 +18902,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -19009,13 +18925,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" t="s">
         <v>325</v>
-      </c>
-      <c r="C46" t="s">
-        <v>326</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
@@ -19032,13 +18948,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" t="s">
         <v>327</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>328</v>
-      </c>
-      <c r="C47" t="s">
-        <v>329</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -19055,13 +18971,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s">
         <v>330</v>
       </c>
-      <c r="B48" t="s">
-        <v>331</v>
-      </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
@@ -19078,13 +18994,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
         <v>332</v>
-      </c>
-      <c r="C49" t="s">
-        <v>333</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -19101,10 +19017,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
@@ -19124,13 +19040,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" t="s">
         <v>335</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>336</v>
-      </c>
-      <c r="C51" t="s">
-        <v>337</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -19147,10 +19063,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
@@ -19170,13 +19086,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -19193,13 +19109,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" t="s">
         <v>340</v>
-      </c>
-      <c r="C54" t="s">
-        <v>341</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
@@ -19216,13 +19132,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -19239,13 +19155,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" t="s">
         <v>343</v>
-      </c>
-      <c r="C56" t="s">
-        <v>344</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
@@ -19262,13 +19178,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" t="s">
         <v>345</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>346</v>
-      </c>
-      <c r="C57" t="s">
-        <v>347</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -19285,13 +19201,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -19308,13 +19224,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -19331,13 +19247,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -19354,13 +19270,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" t="s">
         <v>351</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>352</v>
-      </c>
-      <c r="C61" t="s">
-        <v>353</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -19377,13 +19293,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
         <v>354</v>
-      </c>
-      <c r="C62" t="s">
-        <v>355</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -19400,13 +19316,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
@@ -19423,13 +19339,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" t="s">
         <v>357</v>
-      </c>
-      <c r="C64" t="s">
-        <v>358</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -19446,13 +19362,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -19469,13 +19385,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" t="s">
         <v>360</v>
       </c>
-      <c r="B66" t="s">
-        <v>361</v>
-      </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -19492,13 +19408,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" t="s">
         <v>362</v>
-      </c>
-      <c r="C67" t="s">
-        <v>363</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -19515,13 +19431,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" t="s">
         <v>364</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>365</v>
-      </c>
-      <c r="C68" t="s">
-        <v>366</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -19538,13 +19454,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" t="s">
         <v>367</v>
       </c>
-      <c r="B69" t="s">
-        <v>368</v>
-      </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -19561,13 +19477,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" t="s">
         <v>369</v>
-      </c>
-      <c r="C70" t="s">
-        <v>370</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -19584,13 +19500,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C71" t="s">
         <v>371</v>
-      </c>
-      <c r="C71" t="s">
-        <v>372</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -19607,13 +19523,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" t="s">
         <v>373</v>
-      </c>
-      <c r="C72" t="s">
-        <v>374</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -19630,13 +19546,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" t="s">
         <v>375</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>376</v>
-      </c>
-      <c r="C73" t="s">
-        <v>377</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -19653,13 +19569,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
         <v>378</v>
-      </c>
-      <c r="C74" t="s">
-        <v>379</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -19676,13 +19592,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75" t="s">
         <v>380</v>
-      </c>
-      <c r="C75" t="s">
-        <v>381</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -19699,13 +19615,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
+        <v>381</v>
+      </c>
+      <c r="C76" t="s">
         <v>382</v>
-      </c>
-      <c r="C76" t="s">
-        <v>383</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -19722,13 +19638,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" t="s">
         <v>384</v>
-      </c>
-      <c r="C77" t="s">
-        <v>385</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -19745,13 +19661,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" t="s">
         <v>386</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>387</v>
-      </c>
-      <c r="C78" t="s">
-        <v>388</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -19768,13 +19684,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" t="s">
         <v>389</v>
-      </c>
-      <c r="C79" t="s">
-        <v>390</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -19791,13 +19707,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -19814,13 +19730,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" t="s">
         <v>392</v>
-      </c>
-      <c r="C81" t="s">
-        <v>393</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -19837,13 +19753,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -19860,13 +19776,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" t="s">
         <v>395</v>
-      </c>
-      <c r="C83" t="s">
-        <v>396</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -19883,13 +19799,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
+        <v>396</v>
+      </c>
+      <c r="C84" t="s">
         <v>397</v>
-      </c>
-      <c r="C84" t="s">
-        <v>398</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -19906,13 +19822,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" t="s">
         <v>399</v>
-      </c>
-      <c r="C85" t="s">
-        <v>400</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -19929,13 +19845,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
+        <v>400</v>
+      </c>
+      <c r="C86" t="s">
         <v>401</v>
-      </c>
-      <c r="C86" t="s">
-        <v>402</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -19952,13 +19868,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
+        <v>402</v>
+      </c>
+      <c r="C87" t="s">
         <v>403</v>
-      </c>
-      <c r="C87" t="s">
-        <v>404</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -19975,13 +19891,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>404</v>
+      </c>
+      <c r="B88" t="s">
         <v>405</v>
       </c>
-      <c r="B88" t="s">
-        <v>406</v>
-      </c>
       <c r="C88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -19998,13 +19914,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>406</v>
+      </c>
+      <c r="B89" t="s">
         <v>407</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>408</v>
-      </c>
-      <c r="C89" t="s">
-        <v>409</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -20021,13 +19937,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
+        <v>409</v>
+      </c>
+      <c r="C90" t="s">
         <v>410</v>
-      </c>
-      <c r="C90" t="s">
-        <v>411</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -20044,13 +19960,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" t="s">
         <v>412</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>413</v>
-      </c>
-      <c r="C91" t="s">
-        <v>414</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -20067,13 +19983,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" t="s">
         <v>415</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>416</v>
-      </c>
-      <c r="C92" t="s">
-        <v>417</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -20090,13 +20006,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -20113,13 +20029,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
+        <v>418</v>
+      </c>
+      <c r="C94" t="s">
         <v>419</v>
-      </c>
-      <c r="C94" t="s">
-        <v>420</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -20136,13 +20052,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>420</v>
+      </c>
+      <c r="B95" t="s">
         <v>421</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>422</v>
-      </c>
-      <c r="C95" t="s">
-        <v>423</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -20159,13 +20075,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" t="s">
         <v>424</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>425</v>
-      </c>
-      <c r="C96" t="s">
-        <v>426</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -20182,13 +20098,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" t="s">
         <v>427</v>
-      </c>
-      <c r="C97" t="s">
-        <v>428</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -20205,13 +20121,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -20228,13 +20144,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -20251,13 +20167,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>430</v>
+      </c>
+      <c r="B100" t="s">
         <v>431</v>
       </c>
-      <c r="B100" t="s">
-        <v>432</v>
-      </c>
       <c r="C100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -20274,13 +20190,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C101" t="s">
         <v>433</v>
-      </c>
-      <c r="C101" t="s">
-        <v>434</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -20297,13 +20213,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>434</v>
+      </c>
+      <c r="B102" t="s">
         <v>435</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>436</v>
-      </c>
-      <c r="C102" t="s">
-        <v>437</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -20320,13 +20236,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
+        <v>437</v>
+      </c>
+      <c r="C103" t="s">
         <v>438</v>
-      </c>
-      <c r="C103" t="s">
-        <v>439</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -20343,13 +20259,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s">
         <v>440</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>441</v>
-      </c>
-      <c r="C104" t="s">
-        <v>442</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -20366,13 +20282,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" t="s">
         <v>443</v>
       </c>
-      <c r="B105" t="s">
-        <v>444</v>
-      </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -20389,13 +20305,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -20412,13 +20328,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
         <v>446</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>447</v>
-      </c>
-      <c r="C107" t="s">
-        <v>448</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -20430,18 +20346,18 @@
         <v>358.98381294964003</v>
       </c>
       <c r="G107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B108" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" t="s">
         <v>449</v>
-      </c>
-      <c r="C108" t="s">
-        <v>450</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -20458,13 +20374,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109" t="s">
         <v>451</v>
-      </c>
-      <c r="C109" t="s">
-        <v>452</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -20481,10 +20397,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" t="s">
         <v>453</v>
-      </c>
-      <c r="B110" t="s">
-        <v>454</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
@@ -20504,13 +20420,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" t="s">
         <v>455</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>456</v>
-      </c>
-      <c r="C111" t="s">
-        <v>457</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -20527,13 +20443,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
+        <v>457</v>
+      </c>
+      <c r="C112" t="s">
         <v>458</v>
-      </c>
-      <c r="C112" t="s">
-        <v>459</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -20550,13 +20466,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
+        <v>459</v>
+      </c>
+      <c r="C113" t="s">
         <v>460</v>
-      </c>
-      <c r="C113" t="s">
-        <v>461</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -20573,13 +20489,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" t="s">
         <v>462</v>
-      </c>
-      <c r="C114" t="s">
-        <v>463</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -20596,13 +20512,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" t="s">
         <v>464</v>
-      </c>
-      <c r="C115" t="s">
-        <v>465</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -20611,21 +20527,21 @@
         <v>1390.43333333333</v>
       </c>
       <c r="F115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C116" t="s">
         <v>466</v>
-      </c>
-      <c r="C116" t="s">
-        <v>467</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -20642,13 +20558,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" t="s">
         <v>468</v>
-      </c>
-      <c r="C117" t="s">
-        <v>469</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -20665,13 +20581,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -20688,13 +20604,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" t="s">
         <v>471</v>
-      </c>
-      <c r="C119" t="s">
-        <v>472</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -20711,13 +20627,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
+        <v>472</v>
+      </c>
+      <c r="C120" t="s">
         <v>473</v>
-      </c>
-      <c r="C120" t="s">
-        <v>474</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -20734,13 +20650,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -20757,13 +20673,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
+        <v>475</v>
+      </c>
+      <c r="C122" t="s">
         <v>476</v>
-      </c>
-      <c r="C122" t="s">
-        <v>477</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -20780,13 +20696,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" t="s">
+        <v>477</v>
+      </c>
+      <c r="C123" t="s">
         <v>478</v>
-      </c>
-      <c r="C123" t="s">
-        <v>479</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -20803,13 +20719,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
+        <v>479</v>
+      </c>
+      <c r="C124" t="s">
         <v>480</v>
-      </c>
-      <c r="C124" t="s">
-        <v>481</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -20826,13 +20742,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125" t="s">
+        <v>481</v>
+      </c>
+      <c r="C125" t="s">
         <v>482</v>
-      </c>
-      <c r="C125" t="s">
-        <v>483</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -20849,13 +20765,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" t="s">
+        <v>483</v>
+      </c>
+      <c r="C126" t="s">
         <v>484</v>
-      </c>
-      <c r="C126" t="s">
-        <v>485</v>
       </c>
       <c r="D126" t="s">
         <v>24</v>
@@ -20872,13 +20788,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>485</v>
+      </c>
+      <c r="B127" t="s">
         <v>486</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>487</v>
-      </c>
-      <c r="C127" t="s">
-        <v>488</v>
       </c>
       <c r="D127" t="s">
         <v>24</v>
@@ -20895,13 +20811,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
+        <v>488</v>
+      </c>
+      <c r="C128" t="s">
         <v>489</v>
-      </c>
-      <c r="C128" t="s">
-        <v>490</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -20918,13 +20834,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129" t="s">
+        <v>490</v>
+      </c>
+      <c r="C129" t="s">
         <v>491</v>
-      </c>
-      <c r="C129" t="s">
-        <v>492</v>
       </c>
       <c r="D129" t="s">
         <v>24</v>
@@ -20941,13 +20857,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
+        <v>492</v>
+      </c>
+      <c r="C130" t="s">
         <v>493</v>
-      </c>
-      <c r="C130" t="s">
-        <v>494</v>
       </c>
       <c r="D130" t="s">
         <v>24</v>
@@ -20964,13 +20880,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" t="s">
         <v>495</v>
-      </c>
-      <c r="C131" t="s">
-        <v>496</v>
       </c>
       <c r="D131" t="s">
         <v>24</v>
@@ -20987,13 +20903,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D132" t="s">
         <v>24</v>
@@ -21010,13 +20926,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
+        <v>497</v>
+      </c>
+      <c r="C133" t="s">
         <v>498</v>
-      </c>
-      <c r="C133" t="s">
-        <v>499</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
@@ -21033,13 +20949,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s">
+        <v>499</v>
+      </c>
+      <c r="C134" t="s">
         <v>500</v>
-      </c>
-      <c r="C134" t="s">
-        <v>501</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
@@ -21056,13 +20972,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B135" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" t="s">
         <v>502</v>
-      </c>
-      <c r="C135" t="s">
-        <v>503</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -21079,13 +20995,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
+        <v>503</v>
+      </c>
+      <c r="C136" t="s">
         <v>504</v>
-      </c>
-      <c r="C136" t="s">
-        <v>505</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
@@ -21102,13 +21018,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>505</v>
+      </c>
+      <c r="B137" t="s">
         <v>506</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>507</v>
-      </c>
-      <c r="C137" t="s">
-        <v>508</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
@@ -21125,13 +21041,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" t="s">
         <v>509</v>
       </c>
-      <c r="B138" t="s">
-        <v>510</v>
-      </c>
       <c r="C138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -21148,13 +21064,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>510</v>
+      </c>
+      <c r="B139" t="s">
         <v>511</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>512</v>
-      </c>
-      <c r="C139" t="s">
-        <v>513</v>
       </c>
       <c r="D139" t="s">
         <v>24</v>
@@ -21171,13 +21087,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" t="s">
         <v>514</v>
-      </c>
-      <c r="C140" t="s">
-        <v>515</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
@@ -21194,13 +21110,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B141" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C141" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
@@ -21217,13 +21133,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>516</v>
+      </c>
+      <c r="B142" t="s">
         <v>517</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>518</v>
-      </c>
-      <c r="C142" t="s">
-        <v>519</v>
       </c>
       <c r="D142" t="s">
         <v>24</v>
@@ -21240,13 +21156,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" t="s">
         <v>520</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>521</v>
-      </c>
-      <c r="C143" t="s">
-        <v>522</v>
       </c>
       <c r="D143" t="s">
         <v>24</v>
@@ -21263,13 +21179,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B144" t="s">
+        <v>522</v>
+      </c>
+      <c r="C144" t="s">
         <v>523</v>
-      </c>
-      <c r="C144" t="s">
-        <v>524</v>
       </c>
       <c r="D144" t="s">
         <v>24</v>
@@ -21286,13 +21202,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D145" t="s">
         <v>24</v>
@@ -21309,13 +21225,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D146" t="s">
         <v>24</v>
@@ -21332,13 +21248,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>526</v>
+      </c>
+      <c r="B147" t="s">
         <v>527</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>528</v>
-      </c>
-      <c r="C147" t="s">
-        <v>529</v>
       </c>
       <c r="D147" t="s">
         <v>24</v>
@@ -21355,36 +21271,36 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>529</v>
+      </c>
+      <c r="B148" t="s">
         <v>530</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>531</v>
-      </c>
-      <c r="C148" t="s">
-        <v>532</v>
       </c>
       <c r="D148" t="s">
         <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
+        <v>532</v>
+      </c>
+      <c r="C149" t="s">
         <v>533</v>
-      </c>
-      <c r="C149" t="s">
-        <v>534</v>
       </c>
       <c r="D149" t="s">
         <v>24</v>
@@ -21401,13 +21317,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D150" t="s">
         <v>24</v>
@@ -21424,13 +21340,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
+        <v>535</v>
+      </c>
+      <c r="C151" t="s">
         <v>536</v>
-      </c>
-      <c r="C151" t="s">
-        <v>537</v>
       </c>
       <c r="D151" t="s">
         <v>24</v>
@@ -21447,13 +21363,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>537</v>
+      </c>
+      <c r="B152" t="s">
         <v>538</v>
       </c>
-      <c r="B152" t="s">
-        <v>539</v>
-      </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
@@ -21470,13 +21386,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>539</v>
+      </c>
+      <c r="B153" t="s">
         <v>540</v>
       </c>
-      <c r="B153" t="s">
-        <v>541</v>
-      </c>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D153" t="s">
         <v>24</v>
@@ -21493,13 +21409,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>541</v>
+      </c>
+      <c r="B154" t="s">
         <v>542</v>
       </c>
-      <c r="B154" t="s">
-        <v>543</v>
-      </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D154" t="s">
         <v>24</v>
@@ -21516,13 +21432,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
+        <v>543</v>
+      </c>
+      <c r="C155" t="s">
         <v>544</v>
-      </c>
-      <c r="C155" t="s">
-        <v>545</v>
       </c>
       <c r="D155" t="s">
         <v>24</v>
@@ -21539,13 +21455,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s">
+        <v>545</v>
+      </c>
+      <c r="C156" t="s">
         <v>546</v>
-      </c>
-      <c r="C156" t="s">
-        <v>547</v>
       </c>
       <c r="D156" t="s">
         <v>24</v>
@@ -21562,13 +21478,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>547</v>
+      </c>
+      <c r="B157" t="s">
         <v>548</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>549</v>
-      </c>
-      <c r="C157" t="s">
-        <v>550</v>
       </c>
       <c r="D157" t="s">
         <v>24</v>
@@ -21585,13 +21501,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" t="s">
+        <v>550</v>
+      </c>
+      <c r="C158" t="s">
         <v>551</v>
-      </c>
-      <c r="C158" t="s">
-        <v>552</v>
       </c>
       <c r="D158" t="s">
         <v>24</v>
@@ -21608,13 +21524,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B159" t="s">
+        <v>552</v>
+      </c>
+      <c r="C159" t="s">
         <v>553</v>
-      </c>
-      <c r="C159" t="s">
-        <v>554</v>
       </c>
       <c r="D159" t="s">
         <v>24</v>
@@ -21631,36 +21547,36 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" t="s">
+        <v>554</v>
+      </c>
+      <c r="C160" t="s">
         <v>555</v>
-      </c>
-      <c r="C160" t="s">
-        <v>556</v>
       </c>
       <c r="D160" t="s">
         <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F160" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G160" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>556</v>
+      </c>
+      <c r="B161" t="s">
         <v>557</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>558</v>
-      </c>
-      <c r="C161" t="s">
-        <v>559</v>
       </c>
       <c r="D161" t="s">
         <v>24</v>
@@ -21677,13 +21593,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162" t="s">
+        <v>559</v>
+      </c>
+      <c r="C162" t="s">
         <v>560</v>
-      </c>
-      <c r="C162" t="s">
-        <v>561</v>
       </c>
       <c r="D162" t="s">
         <v>24</v>
@@ -21700,13 +21616,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>561</v>
+      </c>
+      <c r="B163" t="s">
         <v>562</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>563</v>
-      </c>
-      <c r="C163" t="s">
-        <v>564</v>
       </c>
       <c r="D163" t="s">
         <v>24</v>
@@ -21723,13 +21639,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B164" t="s">
+        <v>564</v>
+      </c>
+      <c r="C164" t="s">
         <v>565</v>
-      </c>
-      <c r="C164" t="s">
-        <v>566</v>
       </c>
       <c r="D164" t="s">
         <v>24</v>
@@ -21746,13 +21662,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B165" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C165" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D165" t="s">
         <v>24</v>
@@ -21769,13 +21685,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>567</v>
+      </c>
+      <c r="B166" t="s">
         <v>568</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>569</v>
-      </c>
-      <c r="C166" t="s">
-        <v>570</v>
       </c>
       <c r="D166" t="s">
         <v>24</v>
@@ -21792,13 +21708,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
+        <v>570</v>
+      </c>
+      <c r="C167" t="s">
         <v>571</v>
-      </c>
-      <c r="C167" t="s">
-        <v>572</v>
       </c>
       <c r="D167" t="s">
         <v>24</v>
@@ -21815,13 +21731,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B168" t="s">
+        <v>572</v>
+      </c>
+      <c r="C168" t="s">
         <v>573</v>
-      </c>
-      <c r="C168" t="s">
-        <v>574</v>
       </c>
       <c r="D168" t="s">
         <v>24</v>
@@ -21838,13 +21754,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>574</v>
+      </c>
+      <c r="B169" t="s">
         <v>575</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>576</v>
-      </c>
-      <c r="C169" t="s">
-        <v>577</v>
       </c>
       <c r="D169" t="s">
         <v>24</v>
@@ -21861,13 +21777,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B170" t="s">
+        <v>577</v>
+      </c>
+      <c r="C170" t="s">
         <v>578</v>
-      </c>
-      <c r="C170" t="s">
-        <v>579</v>
       </c>
       <c r="D170" t="s">
         <v>24</v>
@@ -21884,13 +21800,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B171" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" t="s">
         <v>580</v>
-      </c>
-      <c r="C171" t="s">
-        <v>581</v>
       </c>
       <c r="D171" t="s">
         <v>24</v>
@@ -21907,13 +21823,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B172" t="s">
+        <v>581</v>
+      </c>
+      <c r="C172" t="s">
         <v>582</v>
-      </c>
-      <c r="C172" t="s">
-        <v>583</v>
       </c>
       <c r="D172" t="s">
         <v>24</v>
@@ -21930,13 +21846,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B173" t="s">
+        <v>583</v>
+      </c>
+      <c r="C173" t="s">
         <v>584</v>
-      </c>
-      <c r="C173" t="s">
-        <v>585</v>
       </c>
       <c r="D173" t="s">
         <v>24</v>
@@ -21956,7 +21872,7 @@
         <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -21976,13 +21892,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B175" t="s">
+        <v>586</v>
+      </c>
+      <c r="C175" t="s">
         <v>587</v>
-      </c>
-      <c r="C175" t="s">
-        <v>588</v>
       </c>
       <c r="D175" t="s">
         <v>24</v>
@@ -21999,13 +21915,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
+        <v>588</v>
+      </c>
+      <c r="C176" t="s">
         <v>589</v>
-      </c>
-      <c r="C176" t="s">
-        <v>590</v>
       </c>
       <c r="D176" t="s">
         <v>24</v>
@@ -22022,13 +21938,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>590</v>
+      </c>
+      <c r="B177" t="s">
         <v>591</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>592</v>
-      </c>
-      <c r="C177" t="s">
-        <v>593</v>
       </c>
       <c r="D177" t="s">
         <v>24</v>
@@ -22045,36 +21961,36 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>593</v>
+      </c>
+      <c r="B178" t="s">
         <v>594</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>595</v>
-      </c>
-      <c r="C178" t="s">
-        <v>596</v>
       </c>
       <c r="D178" t="s">
         <v>24</v>
       </c>
       <c r="E178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
+        <v>596</v>
+      </c>
+      <c r="C179" t="s">
         <v>597</v>
-      </c>
-      <c r="C179" t="s">
-        <v>598</v>
       </c>
       <c r="D179" t="s">
         <v>24</v>
@@ -22091,13 +22007,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>598</v>
+      </c>
+      <c r="B180" t="s">
         <v>599</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>600</v>
-      </c>
-      <c r="C180" t="s">
-        <v>601</v>
       </c>
       <c r="D180" t="s">
         <v>24</v>
@@ -22114,13 +22030,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B181" t="s">
+        <v>601</v>
+      </c>
+      <c r="C181" t="s">
         <v>602</v>
-      </c>
-      <c r="C181" t="s">
-        <v>603</v>
       </c>
       <c r="D181" t="s">
         <v>24</v>
@@ -22137,13 +22053,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B182" t="s">
+        <v>603</v>
+      </c>
+      <c r="C182" t="s">
         <v>604</v>
-      </c>
-      <c r="C182" t="s">
-        <v>605</v>
       </c>
       <c r="D182" t="s">
         <v>24</v>
@@ -22168,6 +22084,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -22323,24 +22256,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F0DA129-3234-41F7-A2DE-1B7617DF62C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22356,22 +22290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA372D8-274E-458B-B278-E3377AB6855B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42DCEE11-C2D1-41E8-9853-F3E1FBDDEFD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>